--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.100719.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.100719.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -589,12 +589,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -627,12 +627,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -817,12 +817,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1843,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2189,12 +2189,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2493,12 +2493,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3827,12 +3827,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5009,12 +5009,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5161,12 +5161,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5275,12 +5275,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5579,12 +5579,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5617,12 +5617,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5921,12 +5921,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5959,12 +5959,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6225,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6491,12 +6491,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7517,12 +7517,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7555,12 +7555,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7593,12 +7593,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7783,12 +7783,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7935,12 +7935,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8011,12 +8011,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8661,12 +8661,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8851,12 +8851,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9307,12 +9307,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9383,12 +9383,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9573,12 +9573,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10067,12 +10067,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10827,12 +10827,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11853,12 +11853,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12241,12 +12241,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12435,12 +12435,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
